--- a/filter_tags.xlsx
+++ b/filter_tags.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113B81D-B16B-B049-8BEB-3BEA6247D289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4633F2EC-7738-AD43-BD42-A45356D113ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>category</t>
   </si>
   <si>
-    <t>product_type</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
     <t>application</t>
   </si>
   <si>
-    <t>Fishery &amp; Ocean research</t>
-  </si>
-  <si>
-    <t>Uncrewed Surface Vehicle</t>
-  </si>
-  <si>
     <t>remote vessel operation, customizable payload, USV hydroacoustic applications</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>maritime communication, subsea communication, underwater mapping, navigation systems</t>
   </si>
   <si>
-    <t>Surveilance &amp; monitoring</t>
-  </si>
-  <si>
     <t>Autonomous Underwater Vehicle, Acoustic Control System, Leak Detection System, Diver Detection Sonar</t>
   </si>
   <si>
@@ -113,15 +101,9 @@
     <t>Surface navigation &amp; positioning</t>
   </si>
   <si>
-    <t>GPS receiver, inertial sensor, IALA beacon receiver, marine_echo_sounder</t>
-  </si>
-  <si>
     <t>GNSS infrastructure, spoofing mitigation, sensor fusion compatible, augmented reality</t>
   </si>
   <si>
-    <t>marine GPS, vessel tracking, maritime navigation, environmental monitoring</t>
-  </si>
-  <si>
     <t>Inertial solutions</t>
   </si>
   <si>
@@ -149,21 +131,9 @@
     <t>Data Management, Cloud Storage, Industrial IoT, Quality Assurance</t>
   </si>
   <si>
-    <t>sensor_data_analysis, cloud-based, AI classification, Cyber Security</t>
-  </si>
-  <si>
-    <t>environmental_monitoring, ocean exploration, situational_awareness, data visualization</t>
-  </si>
-  <si>
     <t>Fishery &amp; ocean research</t>
   </si>
   <si>
-    <t>echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument</t>
-  </si>
-  <si>
-    <t>wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer</t>
-  </si>
-  <si>
     <t>scientific research, environmental monitoring, fish stock assessment, marine navigation</t>
   </si>
   <si>
@@ -182,9 +152,6 @@
     <t>Naval</t>
   </si>
   <si>
-    <t>UAV, USVT, surface, underwater</t>
-  </si>
-  <si>
     <t>3D sonar technology, advanced navigation system, HISAS, Sunstone,</t>
   </si>
   <si>
@@ -198,6 +165,33 @@
   </si>
   <si>
     <t>Uncrewed Surface Vehicle, Autonomous Underwater Vehicle, Diver Detection Sonar</t>
+  </si>
+  <si>
+    <t>product type</t>
+  </si>
+  <si>
+    <t>GPS receiver, inertial sensor, IALA beacon receiver, marine echo sounder</t>
+  </si>
+  <si>
+    <t>sensor data analysis, cloud-based, AI classification, Cyber Security</t>
+  </si>
+  <si>
+    <t>environmental monitoring, ocean exploration, situational awareness, data visualization</t>
+  </si>
+  <si>
+    <t>echo sounder system, autonomous transceiver, sonar technology, oceanographic instrument</t>
+  </si>
+  <si>
+    <t>wideband technology, acoustic Doppler, GPS integrated system, split-beam transducer</t>
+  </si>
+  <si>
+    <t>Surveillance &amp; monitoring</t>
+  </si>
+  <si>
+    <t>AUV, USV, surface, underwater</t>
+  </si>
+  <si>
+    <t>GPS, vessel tracking, maritime navigation, environmental monitoring</t>
   </si>
 </sst>
 </file>
@@ -561,23 +555,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="151" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" customWidth="1"/>
+    <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -585,67 +582,55 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -653,165 +638,121 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/filter_tags.xlsx
+++ b/filter_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4633F2EC-7738-AD43-BD42-A45356D113ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28A7D30-2669-E749-B058-81BECA09B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51680" yWindow="-2600" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +152,6 @@
     <t>Naval</t>
   </si>
   <si>
-    <t>3D sonar technology, advanced navigation system, HISAS, Sunstone,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder, </t>
-  </si>
-  <si>
     <t>Modem, Radio, subsea, surface, transceiver</t>
   </si>
   <si>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>GPS, vessel tracking, maritime navigation, environmental monitoring</t>
+  </si>
+  <si>
+    <t>3D sonar technology, advanced navigation system, HISAS, Sunstone</t>
+  </si>
+  <si>
+    <t>Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -644,10 +644,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -703,10 +703,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -742,7 +742,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>

--- a/filter_tags.xlsx
+++ b/filter_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032D9297-BD96-9C43-90B1-0944E20475BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02118532-7690-414D-AF4D-29C7E40DF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69080" yWindow="-6460" windowWidth="34280" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="12760" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,21 +37,9 @@
     <t>Autonomous and uncrewed solutions</t>
   </si>
   <si>
-    <t>AUV, Surface, Underwater, USV</t>
-  </si>
-  <si>
-    <t>3D sonar technology, Advanced Navigation System, HISAS, Sunstone</t>
-  </si>
-  <si>
-    <t>Environmental Monitoring, Marine Survey, Maritime Surveillance, Subsea Mapping</t>
-  </si>
-  <si>
     <t>Cloud solution</t>
   </si>
   <si>
-    <t>Cloud Storage, Data Management, Industrial IoT, Quality Assurance</t>
-  </si>
-  <si>
     <t>AI classification, Cloud-Based, Cyber Security, Sensor Data Analysis</t>
   </si>
   <si>
@@ -61,15 +49,6 @@
     <t>Communication solutions</t>
   </si>
   <si>
-    <t>Modem, Radio, Subsea, Surface, Transceiver</t>
-  </si>
-  <si>
-    <t>Acoustic Modem, Modem Softare, reconfigurable SDR, VDES technology</t>
-  </si>
-  <si>
-    <t>Maritime Communication, Navigation Systems, Subsea Communication, Underwater Mapping</t>
-  </si>
-  <si>
     <t>Fish finding</t>
   </si>
   <si>
@@ -176,13 +155,34 @@
   </si>
   <si>
     <t>Dynamic Positioning Reference, ROV integration, Subsea Survey, Underwater Communication</t>
+  </si>
+  <si>
+    <t>Modem, Broadband radio, Transceiver</t>
+  </si>
+  <si>
+    <t>Acoustic Modem, VDES technology,</t>
+  </si>
+  <si>
+    <t>Maritime Communication, Subsea Communication, Portable, Rapid deployment kit, UAV, Submersible, customer specific integration (OEM), Surface, Space</t>
+  </si>
+  <si>
+    <t>Data Management, Industrial IoT, Quality Assurance</t>
+  </si>
+  <si>
+    <t>AUV (aut) products, USV(und) products, Hugin AUV, Sounder USV</t>
+  </si>
+  <si>
+    <t>Navigation, 3000 meter, 4500 meter, 6000 meter, Multibeam Echo sounder, Single beam echo sounder, Sub-bottom profiler, Situational awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Monitoring, Marine Survey, Maritime Surveillance, Infrastructure Monitoring, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,11 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,10 +558,10 @@
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.1640625" customWidth="1"/>
+    <col min="4" max="4" width="120.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,172 +575,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D13" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/filter_tags.xlsx
+++ b/filter_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02118532-7690-414D-AF4D-29C7E40DF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B41A5-43FF-9F4C-9C6B-AD629F415F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="12760" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14660" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,12 +76,6 @@
     <t>Geophysical survey</t>
   </si>
   <si>
-    <t>Autonomous Underwater Vehicle, Multibeam echosounder software, Sub-bottom profiler, Underwater Altimeters</t>
-  </si>
-  <si>
-    <t>Advanced Navigation System, Low Frequency Transducers, Pitch And Roll Stabilization, Sub-Bottom Sonar</t>
-  </si>
-  <si>
     <t>Deep-Sea Exploration, Geophysical Survey, Seafloor Mapping, Sediment Layer Mapping</t>
   </si>
   <si>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">Environmental Monitoring, Marine Survey, Maritime Surveillance, Infrastructure Monitoring, </t>
+  </si>
+  <si>
+    <t>Autonomous Underwater Vehicle, Multibeam echo sounder software, Sub-bottom profiler</t>
+  </si>
+  <si>
+    <t>Advanced Navigation System, Multibeam, Single beam</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -610,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -649,101 +649,102 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/filter_tags.xlsx
+++ b/filter_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B41A5-43FF-9F4C-9C6B-AD629F415F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CCE268-4B8C-4942-BE48-1676416FBB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14660" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Geophysical survey</t>
   </si>
   <si>
-    <t>Deep-Sea Exploration, Geophysical Survey, Seafloor Mapping, Sediment Layer Mapping</t>
-  </si>
-  <si>
     <t>Inertial solutions</t>
   </si>
   <si>
@@ -175,7 +172,10 @@
     <t>Autonomous Underwater Vehicle, Multibeam echo sounder software, Sub-bottom profiler</t>
   </si>
   <si>
-    <t>Advanced Navigation System, Multibeam, Single beam</t>
+    <t>Positioning &amp; attitude, Multibeam, Single beam</t>
+  </si>
+  <si>
+    <t>Deep-Sea Exploration, Seafloor Mapping, Sediment Layer Mapping</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -610,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -653,98 +653,98 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/filter_tags.xlsx
+++ b/filter_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CCE268-4B8C-4942-BE48-1676416FBB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE648EE-60B8-8A4B-BB34-C2C1A0DFA8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14660" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,15 +79,6 @@
     <t>Inertial solutions</t>
   </si>
   <si>
-    <t>Motion Reference Unit, Navigation Simulation</t>
-  </si>
-  <si>
-    <t>Attitude Determination, Inertial Measurement, MEMS gyro, Motion Sensor</t>
-  </si>
-  <si>
-    <t>Marine Navigation, Motion Compensation, Post-Processing Analysis, Sensor Data Optimization</t>
-  </si>
-  <si>
     <t>Naval</t>
   </si>
   <si>
@@ -176,6 +167,15 @@
   </si>
   <si>
     <t>Deep-Sea Exploration, Seafloor Mapping, Sediment Layer Mapping</t>
+  </si>
+  <si>
+    <t>MRU (Motion Reference Unit), MGC (Motion Gyro Compass), Seapath</t>
+  </si>
+  <si>
+    <t>inertial measurement, MEMS gyro, motion sensor, attitude determination</t>
+  </si>
+  <si>
+    <t>Sensor data optimization, Post-processing analysis, Marine navigation, Motion compensation, Heave compensation</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -610,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -653,98 +653,99 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
